--- a/横琴传感器数据/sensors_db_init_HQ.xlsx
+++ b/横琴传感器数据/sensors_db_init_HQ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11C2639-0AF3-4EA0-890E-BCC0E9F644FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFB0A3D-5B31-4223-8C8E-72E868CBF345}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3190" yWindow="1420" windowWidth="19200" windowHeight="10060" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SensorTypes" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="333">
   <si>
     <t>TypeName</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1929,13 +1929,337 @@
   </si>
   <si>
     <t>30米</t>
+  </si>
+  <si>
+    <t>ZBDMSPWY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周边地面水平位移</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周边道路水平移动的距离</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZBDMCJ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周边地面沉降</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周边道路沉降距离</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HNTZCZLJC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>混凝土支撑轴力监测</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对混凝土支撑轴力的监测</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPWY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周边道路水平位移</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJWY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周边道路沉降位移</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZHZL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>混凝土支撑轴力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1点水平位移</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D2点水平位移</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D3点水平位移</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D4点水平位移</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D5点水平位移</t>
+  </si>
+  <si>
+    <t>D20</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>D20点水平位移</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D21</t>
+  </si>
+  <si>
+    <t>D21点水平位移</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D22</t>
+  </si>
+  <si>
+    <t>D22点水平位移</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D23</t>
+  </si>
+  <si>
+    <t>D23点水平位移</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D24</t>
+  </si>
+  <si>
+    <t>D24点水平位移</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1点沉降位移</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2点沉降位移</t>
+  </si>
+  <si>
+    <t>D3点沉降位移</t>
+  </si>
+  <si>
+    <t>D4点沉降位移</t>
+  </si>
+  <si>
+    <t>D5点沉降位移</t>
+  </si>
+  <si>
+    <t>D20点沉降位移</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D21点沉降位移</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D22点沉降位移</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D23点沉降位移</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D24点沉降位移</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1-1测点处混凝土支撑轴力</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4-1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4-1测点处混凝土支撑轴力</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>C7-1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>C7-1测点处混凝土支撑轴力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1-2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1-2测点处混凝土支撑轴力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4-2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4-2测点处混凝土支撑轴力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C7-2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>C7-2测点处混凝土支撑轴力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3-3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3-3测点处混凝土支撑轴力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4-3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4-3测点处混凝土支撑轴力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C5-3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>C5-3测点处混凝土支撑轴力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1983,6 +2307,13 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2004,10 +2335,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2289,10 +2626,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2377,6 +2714,39 @@
       </c>
       <c r="C7" s="1" t="s">
         <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -2393,7 +2763,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2589,25 +2959,73 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
@@ -2647,10 +3065,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:E140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView topLeftCell="A129" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F139" sqref="F139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3887,6 +4305,325 @@
         <v>258</v>
       </c>
     </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3896,10 +4633,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3927,304 +4664,1347 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="1">
+        <v>45</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="1">
+        <v>45</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="1">
+        <v>45</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="1">
+        <v>45</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="1">
+        <v>45</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="1">
+        <v>45</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="1">
+        <v>45</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" s="1">
+        <v>45</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" s="1">
+        <v>45</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" s="1">
+        <v>45</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="1">
+        <v>30</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="1">
+        <v>30</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="1">
+        <v>30</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="1">
+        <v>45</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="1">
+        <v>45</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="1">
+        <v>45</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="1">
+        <v>45</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="1">
+        <v>45</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="1">
+        <v>45</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="1">
+        <v>45</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="1">
+        <v>45</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="1">
+        <v>45</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="1">
+        <v>45</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="1">
+        <v>30</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="1">
+        <v>30</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="1">
+        <v>30</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="1">
+        <v>24</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="1">
+        <v>24</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="1">
+        <v>24</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="1">
+        <v>24</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="1">
+        <v>24</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="1">
+        <v>24</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D46" s="1">
+        <v>24</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D47" s="1">
+        <v>24</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D48" s="1">
+        <v>24</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D49" s="1">
+        <v>24</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D50" s="1">
+        <v>24</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D51" s="1">
+        <v>24</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D52" s="1">
+        <v>24</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D53" s="1">
+        <v>24</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D54" s="1">
+        <v>24</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D55" s="1">
+        <v>24</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D56" s="1">
+        <v>24</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D57" s="1">
+        <v>24</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D58" s="1">
+        <v>24</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D59" s="1">
+        <v>24</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D60" s="1">
+        <v>24</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D61" s="1">
+        <v>24</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D62" s="1">
+        <v>24</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D63" s="1">
+        <v>24</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D64" s="1">
+        <v>24</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D65" s="1">
+        <v>24</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D66" s="1">
+        <v>24</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D67" s="1">
+        <v>10</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D68" s="1">
+        <v>10</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D69" s="1">
+        <v>10</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D70" s="1">
+        <v>10</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D71" s="1">
+        <v>10</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D72" s="1">
+        <v>8000</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D73" s="1">
+        <v>8000</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D74" s="1">
+        <v>12000</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D75" s="1">
+        <v>24000</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D76" s="1">
+        <v>24000</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D77" s="1">
+        <v>24000</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D78" s="1">
+        <v>24000</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D79" s="1">
+        <v>24000</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D80" s="1">
+        <v>24000</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
